--- a/Gantt-kaavio.xlsx
+++ b/Gantt-kaavio.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DABCB36-8D50-4428-92ED-115A24C15997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8640A9AD-22C2-4A50-AE71-A744F7EE4E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-Kaavio" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Projektin aikajana</t>
   </si>
@@ -54,13 +54,16 @@
   </si>
   <si>
     <t>Zess</t>
+  </si>
+  <si>
+    <t>Testaus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +107,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +171,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -318,6 +334,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -327,7 +352,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -365,18 +390,22 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="4" builtinId="10"/>
+    <cellStyle name="Huomautus" xfId="4" builtinId="10"/>
+    <cellStyle name="Huono" xfId="1" builtinId="27"/>
+    <cellStyle name="Hyvä" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutraali" xfId="2" builtinId="28"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Tarkistussolu" xfId="5" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -681,20 +710,20 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="10" width="18.28515625" customWidth="1"/>
+    <col min="3" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -726,7 +755,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -734,13 +763,13 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
@@ -748,13 +777,13 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
@@ -762,13 +791,13 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -776,13 +805,13 @@
       <c r="C5" s="15"/>
       <c r="D5" s="4"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
@@ -790,13 +819,13 @@
       <c r="C6" s="16"/>
       <c r="D6" s="5"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
@@ -804,13 +833,13 @@
       <c r="C7" s="17"/>
       <c r="D7" s="8"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>7</v>
       </c>
@@ -818,13 +847,13 @@
       <c r="C8" s="15"/>
       <c r="D8" s="4"/>
       <c r="E8" s="22"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>8</v>
       </c>
@@ -832,13 +861,13 @@
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>9</v>
       </c>
@@ -846,13 +875,13 @@
       <c r="C10" s="11"/>
       <c r="D10" s="20"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>10</v>
       </c>
@@ -860,13 +889,13 @@
       <c r="C11" s="11"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
@@ -874,49 +903,51 @@
       <c r="C12" s="24"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="1"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
